--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/19/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/19/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3153153153153153</v>
+        <v>0.4923492349234924</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>474.4744744744745</v>
+        <v>1009.430943094309</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0953953953953954</v>
+        <v>0.01845184518451845</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3213213213213213</v>
+        <v>0.1688168816881688</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>438.4384384384385</v>
+        <v>276.1476147614761</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>979.97997997998</v>
+        <v>496.4896489648965</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>552.5525525525526</v>
+        <v>717.9540954095409</v>
       </c>
     </row>
   </sheetData>
